--- a/console/Networking/kubernetesExcel/components/deleteCluster.xlsx
+++ b/console/Networking/kubernetesExcel/components/deleteCluster.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\韩凯\2019.1\1.15\Console_190116-译文-提交\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -25,14 +20,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Confirm to delete the cluster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I have known the contents above. I acknowledge and agree to delete all working node groups in the cluster and nodes in the working node group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>deleteCluster_i18nKey_1</t>
   </si>
   <si>
@@ -127,7 +114,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>If the cluster is deleted, all resources related to such cluster, all working node groups in such cluster and working nodes in the working node groups will be removed and the application deployed will be absolutely deleted; the Public IP created by the user and the persistent JCS for Kubernetes memory without automatic deletion setting will be remained; and if it is not required to remain such memory, please go to corresponding page and delete such memory, for fear of additional cost.</t>
+    <t xml:space="preserve">When Kubernetes cluster is deleted, all resources associated with cluster including working nodegroups and nodes will be removed and all resouces deployed in the cluster will be removed completely; Elastic IP and PV with delete reclaim policy will be reserved; Delete related resouces in the console  to avoid extra charges if it is not needed any more.                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                             </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do you want to delete cluster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I've understood fully and agree to delete all working nodegroups in the cluster and nodes in the working node group</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -135,7 +130,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -162,6 +157,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -183,10 +184,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -528,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -539,37 +543,38 @@
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="2" width="81.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="65.625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="64.25" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>0</v>
@@ -577,13 +582,13 @@
     </row>
     <row r="4" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
